--- a/biology/Botanique/Agaricomycotina/Agaricomycotina.xlsx
+++ b/biology/Botanique/Agaricomycotina/Agaricomycotina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Agaricomycotina constituent la plus importante sous-division de champignons basidiomycètes.
 </t>
@@ -511,7 +523,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Presque toutes les espèces sont terrestres (quelques rares espèces sont aquatiques).
 Ce sont souvent des saprophytes qui participent à la décomposition de la lignine. Cependant certaines espèces sont parasites ou symbiontes. Il faut aussi noter leur rôle très important en tant qu'ectomycorhize.
@@ -545,12 +559,53 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Relations phylogéniques
+          <t>Relations phylogéniques</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Amanite Amanita muscaria, un Agaricomycetes
 			Calocère Calocera viscosa, un Dacrymycetes
 			Tremella mesenterica, un Tremellomycetes
-Phylogramme des Agaricomycotina
-Classification phylogénétique des Agaricomycotina revue en 2007 selon une vaste étude phylogénétique réalisée en 2007 par plus d'une soixantaine de chercheurs[1], classement adopté par The Tree of Life Web Project et Myconet[2] et une étude plus spécifique de 2006[3].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Agaricomycotina</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agaricomycotina</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Phylogramme des Agaricomycotina</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Classification phylogénétique des Agaricomycotina revue en 2007 selon une vaste étude phylogénétique réalisée en 2007 par plus d'une soixantaine de chercheurs, classement adopté par The Tree of Life Web Project et Myconet et une étude plus spécifique de 2006.
 Agaricomycotina
 Tremellomycetes
 Cystofilobasidiales
@@ -579,9 +634,43 @@
 Atheliales 95 spp.
 Amylocorticiales 70 spp.
 Boletales 1.300 spp.
-Agaricales (ou Euagarics) 13.000 spp.
-Classification linéennes
-D'après Hibbett et al. (2007)[4], cette sous-division est constituée des trois classes suivantes :
+Agaricales (ou Euagarics) 13.000 spp.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Agaricomycotina</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agaricomycotina</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Classification linéennes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>D'après Hibbett et al. (2007), cette sous-division est constituée des trois classes suivantes :
 classe des Tremellomycetes
 ordres des Cystofilobasidiales, Filobasidiales, Tremellales
 classe des Dacrymycetes
